--- a/user_statistics.xlsx
+++ b/user_statistics.xlsx
@@ -460,7 +460,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D28"/>
+  <dimension ref="A1:D37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -524,252 +524,347 @@
     <row r="5">
       <c r="A5" s="5" t="inlineStr">
         <is>
-          <t>problem/152/C</t>
+          <t>problem/401/B</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="5" t="inlineStr">
         <is>
-          <t>problem/152/B</t>
+          <t>problem/400/C</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="5" t="inlineStr">
         <is>
-          <t>problem/152/A</t>
+          <t>problem/400/B</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="5" t="inlineStr">
         <is>
-          <t>problem/151/B</t>
+          <t>problem/389/B</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="5" t="inlineStr">
         <is>
-          <t>problem/150/A</t>
+          <t>problem/389/A</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="5" t="inlineStr">
         <is>
-          <t>problem/149/C</t>
+          <t>problem/388/A</t>
         </is>
       </c>
     </row>
     <row r="11" ht="20" customHeight="1">
       <c r="A11" s="5" t="inlineStr">
         <is>
-          <t>problem/149/A</t>
+          <t>problem/387/B</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="5" t="inlineStr">
         <is>
-          <t>problem/148/B</t>
+          <t>problem/386/B</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="5" t="inlineStr">
         <is>
-          <t>problem/147/A</t>
+          <t>problem/385/B</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="5" t="inlineStr">
         <is>
-          <t>problem/146/B</t>
+          <t>problem/385/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="5" t="inlineStr">
+        <is>
+          <t>problem/384/B</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="inlineStr">
+      <c r="A16" s="5" t="inlineStr">
+        <is>
+          <t>problem/382/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="5" t="inlineStr">
+        <is>
+          <t>problem/381/B</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="5" t="inlineStr">
+        <is>
+          <t>problem/379/C</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="5" t="inlineStr">
+        <is>
+          <t>problem/379/B</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
         <is>
           <t>Frequently Solved Problems</t>
         </is>
       </c>
-      <c r="B16" s="1" t="inlineStr">
+      <c r="B21" s="1" t="inlineStr">
         <is>
           <t>Problem Count</t>
         </is>
       </c>
-      <c r="C16" s="1" t="inlineStr">
+      <c r="C21" s="1" t="inlineStr">
         <is>
           <t>Success Rate</t>
         </is>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" s="3" t="inlineStr">
+    <row r="22">
+      <c r="A22" s="3" t="inlineStr">
         <is>
           <t>greedy</t>
         </is>
       </c>
-      <c r="B17" s="3" t="n">
+      <c r="B22" s="3" t="n">
         <v>39</v>
       </c>
-      <c r="C17" s="3" t="inlineStr">
+      <c r="C22" s="3" t="inlineStr">
         <is>
           <t>42 %</t>
         </is>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" s="3" t="inlineStr">
+    <row r="23">
+      <c r="A23" s="3" t="inlineStr">
         <is>
           <t>math</t>
         </is>
       </c>
-      <c r="B18" s="3" t="n">
+      <c r="B23" s="3" t="n">
         <v>31</v>
       </c>
-      <c r="C18" s="3" t="inlineStr">
+      <c r="C23" s="3" t="inlineStr">
         <is>
           <t>48 %</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="3" t="inlineStr">
-        <is>
-          <t>implementation</t>
-        </is>
-      </c>
-      <c r="B19" s="3" t="n">
-        <v>28</v>
-      </c>
-      <c r="C19" s="3" t="inlineStr">
-        <is>
-          <t>54 %</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="3" t="inlineStr">
-        <is>
-          <t>brute force</t>
-        </is>
-      </c>
-      <c r="B20" s="3" t="n">
-        <v>16</v>
-      </c>
-      <c r="C20" s="3" t="inlineStr">
-        <is>
-          <t>42 %</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="3" t="inlineStr">
-        <is>
-          <t>strings</t>
-        </is>
-      </c>
-      <c r="B21" s="3" t="n">
-        <v>14</v>
-      </c>
-      <c r="C21" s="3" t="inlineStr">
-        <is>
-          <t>59 %</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="inlineStr">
-        <is>
-          <t>Least Encountered Problems</t>
-        </is>
-      </c>
-      <c r="B23" s="1" t="inlineStr">
-        <is>
-          <t>Problem Count</t>
-        </is>
-      </c>
-      <c r="C23" s="1" t="inlineStr">
-        <is>
-          <t>Success Rate</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="3" t="inlineStr">
         <is>
-          <t>2-sat</t>
+          <t>implementation</t>
         </is>
       </c>
       <c r="B24" s="3" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="C24" s="3" t="inlineStr">
         <is>
-          <t>0 %</t>
+          <t>54 %</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="3" t="inlineStr">
         <is>
-          <t>chinese remainder theorem</t>
+          <t>brute force</t>
         </is>
       </c>
       <c r="B25" s="3" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="C25" s="3" t="inlineStr">
         <is>
-          <t>0 %</t>
+          <t>42 %</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="3" t="inlineStr">
         <is>
-          <t>divide and conquer</t>
+          <t>strings</t>
         </is>
       </c>
       <c r="B26" s="3" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="C26" s="3" t="inlineStr">
         <is>
-          <t>0 %</t>
+          <t>59 %</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="3" t="inlineStr">
         <is>
-          <t>dsu</t>
+          <t>constructive algorithms</t>
         </is>
       </c>
       <c r="B27" s="3" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="C27" s="3" t="inlineStr">
         <is>
-          <t>0 %</t>
+          <t>42 %</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="3" t="inlineStr">
         <is>
-          <t>expression parsing</t>
+          <t>sortings</t>
         </is>
       </c>
       <c r="B28" s="3" t="n">
+        <v>12</v>
+      </c>
+      <c r="C28" s="3" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="3" t="inlineStr">
+        <is>
+          <t>data structures</t>
+        </is>
+      </c>
+      <c r="B29" s="3" t="n">
+        <v>7</v>
+      </c>
+      <c r="C29" s="3" t="inlineStr">
+        <is>
+          <t>22 %</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="3" t="inlineStr">
+        <is>
+          <t>dp</t>
+        </is>
+      </c>
+      <c r="B30" s="3" t="n">
+        <v>7</v>
+      </c>
+      <c r="C30" s="3" t="inlineStr">
+        <is>
+          <t>31 %</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="3" t="inlineStr">
+        <is>
+          <t>number theory</t>
+        </is>
+      </c>
+      <c r="B31" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="C31" s="3" t="inlineStr">
+        <is>
+          <t>50 %</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="inlineStr">
+        <is>
+          <t>Least Encountered Problems</t>
+        </is>
+      </c>
+      <c r="B33" s="1" t="inlineStr">
+        <is>
+          <t>Problem Count</t>
+        </is>
+      </c>
+      <c r="C33" s="1" t="inlineStr">
+        <is>
+          <t>Success Rate</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="3" t="inlineStr">
+        <is>
+          <t>2-sat</t>
+        </is>
+      </c>
+      <c r="B34" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="C28" s="3" t="inlineStr">
+      <c r="C34" s="3" t="inlineStr">
+        <is>
+          <t>0 %</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="3" t="inlineStr">
+        <is>
+          <t>chinese remainder theorem</t>
+        </is>
+      </c>
+      <c r="B35" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C35" s="3" t="inlineStr">
+        <is>
+          <t>0 %</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="3" t="inlineStr">
+        <is>
+          <t>divide and conquer</t>
+        </is>
+      </c>
+      <c r="B36" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C36" s="3" t="inlineStr">
+        <is>
+          <t>0 %</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="3" t="inlineStr">
+        <is>
+          <t>dsu</t>
+        </is>
+      </c>
+      <c r="B37" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C37" s="3" t="inlineStr">
         <is>
           <t>0 %</t>
         </is>
@@ -788,6 +883,11 @@
     <hyperlink ref="A12" r:id="rId9"/>
     <hyperlink ref="A13" r:id="rId10"/>
     <hyperlink ref="A14" r:id="rId11"/>
+    <hyperlink ref="A15" r:id="rId12"/>
+    <hyperlink ref="A16" r:id="rId13"/>
+    <hyperlink ref="A17" r:id="rId14"/>
+    <hyperlink ref="A18" r:id="rId15"/>
+    <hyperlink ref="A19" r:id="rId16"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
